--- a/HLS_man/COP20/COP20_man_micronesia.xlsx
+++ b/HLS_man/COP20/COP20_man_micronesia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88CBBF3-B99F-4C6C-85DB-6828F76B163D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465B065-0AC1-4239-8D10-5886621454AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41400" yWindow="0" windowWidth="12600" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
   <si>
     <t>COP20_micronesia</t>
   </si>
@@ -209,18 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Warsaw Mechanism is developed to support developing countries financially. Hence prioritarian. </t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t>moral responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">egalitarian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everyone should take opportunity to contribute to taking actions. This indication of everyone having to do something is egalitarian. </t>
   </si>
 </sst>
 </file>
@@ -593,8 +581,8 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,31 +880,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>59</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">

--- a/HLS_man/COP20/COP20_man_micronesia.xlsx
+++ b/HLS_man/COP20/COP20_man_micronesia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7465B065-0AC1-4239-8D10-5886621454AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7FFA5-1754-4C70-9F97-33F8D62AB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
   <si>
     <t>COP20_micronesia</t>
   </si>
@@ -170,9 +170,6 @@
     <t>financial resources</t>
   </si>
   <si>
-    <t>Other potentially encouraging news is the progress toward a decision on the initial two-year work plan for the Warsaw Mechanism on Loss and Damage. We call on our partners to deliver the large scale financing that it will take to support a credible mechanism.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. President,
 Not only can we still attain an ambitious agreement, but we can also prevent some of the worst impacts of climate change in the near term, but only if we take fast and ambitious actions now, such as using the Montreal Protocol to reduce the powerful greenhouse gases HFCs.
 </t>
@@ -184,31 +181,64 @@
     <t>measures</t>
   </si>
   <si>
-    <t>multinational(developed countries)</t>
-  </si>
-  <si>
     <t>present</t>
   </si>
   <si>
-    <t>moral responsiblity, UNFCCC principles and policies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed countries having to take the lead refers to Article 4 and CBDR, indicating a prioritarian principle. </t>
-  </si>
-  <si>
-    <t>other(GCF)</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>Green climate fund, prioritarian. Highlight the accessibility of these funds.</t>
-  </si>
-  <si>
-    <t>UNFCCC agreements and principles, other(Warsaw Mechanism on Loss and Damage)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warsaw Mechanism is developed to support developing countries financially. Hence prioritarian. </t>
+    <t>multinationalmajor polluters)</t>
+  </si>
+  <si>
+    <t>nearby future</t>
+  </si>
+  <si>
+    <t>moral responsiblity</t>
+  </si>
+  <si>
+    <t>general normative statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describing judgement on the need to take responsiblity, but no specific distribution named. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action on filling GCF, with main idea to help the oworst off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other potentially encouraging news is the progress toward a decision on the initial two-year work plan for the Warsaw Mechanism on Loss and Damage. </t>
+  </si>
+  <si>
+    <t>We call on our partners to deliver the large scale financing that it will take to support a credible mechanism.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action on increasing financing to improve a system that supports the worst off. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">General notion of the need to include loss and damage, no call for a specific distribution. </t>
+  </si>
+  <si>
+    <t>egalitarian</t>
+  </si>
+  <si>
+    <t>Normative statement that presents an egalitarian view calling for the equal participation of women</t>
+  </si>
+  <si>
+    <t>new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>Urging to seek cooperation in both short and long term</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>loss and damage,  new UNFCCC policy</t>
+  </si>
+  <si>
+    <t>actions</t>
+  </si>
+  <si>
+    <t>GCF, actions</t>
   </si>
 </sst>
 </file>
@@ -578,23 +608,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,7 +653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -631,7 +661,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -639,7 +669,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -650,7 +680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -658,7 +688,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -666,7 +696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -674,7 +704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="109.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -682,7 +712,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
@@ -690,7 +720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -698,7 +728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
@@ -706,25 +736,25 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
@@ -732,7 +762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>20</v>
       </c>
@@ -740,7 +770,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -748,7 +778,7 @@
         <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>42</v>
@@ -757,7 +787,7 @@
         <v>40</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
         <v>41</v>
@@ -766,169 +796,231 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" s="3" t="s">
+      <c r="C28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="150" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="F28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>37</v>
       </c>
     </row>

--- a/HLS_man/COP20/COP20_man_micronesia.xlsx
+++ b/HLS_man/COP20/COP20_man_micronesia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\Documents\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suze van Santen\OneDrive - Delft University of Technology\Documenten\GitHub\TextToDistributiveJustice\HLS_man\COP20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD7FFA5-1754-4C70-9F97-33F8D62AB529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6EDB60-FFE4-44D3-A313-D7C321B63281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>COP20_micronesia</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>Unit</t>
-  </si>
-  <si>
-    <t>Scale</t>
-  </si>
-  <si>
-    <t>Time</t>
   </si>
   <si>
     <t>Principle</t>
@@ -152,16 +146,7 @@
     <t>Thank you.</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>associate with Alliance of Small Island States</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>global</t>
   </si>
   <si>
     <t>prioritarian</t>
@@ -178,67 +163,70 @@
     <t>Deep and immediate cuts in carbon dioxide emissions are paramount for long-term climate stabilization, but HFC emissions are hundreds to thousands more times powerful than CO2, and HFCs are the fastest growing greenhouse gases in many countries.</t>
   </si>
   <si>
-    <t>measures</t>
-  </si>
-  <si>
-    <t>present</t>
-  </si>
-  <si>
     <t>n.a.</t>
   </si>
   <si>
-    <t>multinationalmajor polluters)</t>
-  </si>
-  <si>
-    <t>nearby future</t>
-  </si>
-  <si>
-    <t>moral responsiblity</t>
-  </si>
-  <si>
     <t>general normative statement</t>
   </si>
   <si>
-    <t xml:space="preserve">Describing judgement on the need to take responsiblity, but no specific distribution named. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urge to take on action on filling GCF, with main idea to help the oworst off. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Other potentially encouraging news is the progress toward a decision on the initial two-year work plan for the Warsaw Mechanism on Loss and Damage. </t>
   </si>
   <si>
     <t>We call on our partners to deliver the large scale financing that it will take to support a credible mechanism.</t>
   </si>
   <si>
-    <t xml:space="preserve">Urge to take on action on increasing financing to improve a system that supports the worst off. </t>
-  </si>
-  <si>
     <t xml:space="preserve">General notion of the need to include loss and damage, no call for a specific distribution. </t>
   </si>
   <si>
     <t>egalitarian</t>
   </si>
   <si>
-    <t>Normative statement that presents an egalitarian view calling for the equal participation of women</t>
-  </si>
-  <si>
-    <t>new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>Urging to seek cooperation in both short and long term</t>
-  </si>
-  <si>
-    <t>women</t>
-  </si>
-  <si>
-    <t>loss and damage,  new UNFCCC policy</t>
-  </si>
-  <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>GCF, actions</t>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>responsibility</t>
+  </si>
+  <si>
+    <t>UNFCCC agreements and principles</t>
+  </si>
+  <si>
+    <t>proportional to contribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Describing judgement on the need to take responsiblity proportional to contribution. No expression of motivational principle. </t>
+  </si>
+  <si>
+    <t>GCF</t>
+  </si>
+  <si>
+    <t>priority to worst off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action on filling GCF, motivated by the need to help the worst off </t>
+  </si>
+  <si>
+    <t>financial mechanisms</t>
+  </si>
+  <si>
+    <t>loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urge to take on action developing a mechanism. No specific distribution or motivation highlighted. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moral judgement on the inclusion of gender equality, no specific distribution provided, but motivated by egalitarian principle. </t>
+  </si>
+  <si>
+    <t>Normative statement that presents an egalitarian view calling for the equal participation of women.</t>
+  </si>
+  <si>
+    <t>gender equality</t>
+  </si>
+  <si>
+    <t>cooperation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responsiblity to cooperate. No motivation or specific distribution presented. </t>
   </si>
 </sst>
 </file>
@@ -608,23 +596,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="23.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -637,333 +625,328 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="162.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="E14" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="3"/>
+      <c r="B15">
+        <v>0</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="G17" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
+      <c r="B21">
+        <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
+      <c r="B28">
+        <v>2</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>60</v>
@@ -975,53 +958,50 @@
         <v>40</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
+      <c r="B32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
